--- a/budżet projektu - szkolenie.xlsx
+++ b/budżet projektu - szkolenie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10ea117026847637/Pulpit/Portfolio/Excel or Google Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10ea117026847637/GitHub/Excel-or-Google-Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="11_B7AE7E97F21F9B03382D4255ECC55E1794064FBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7161D394-8F3C-46EA-8FB4-FC1092C2C6A4}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_B7AE7E97F21F9B03382D4255ECC55E1794064FBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4BE6D1E-1DD4-4B21-902A-D2A2527A88DA}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="bzujScNny9WmJFmUiwtJF7wHdCZod+xw3V33lqJROiRJnuNOLrMv8F5ZBhsrT8wJdj1z9tC/hJyCw3jv8G+e0A==" workbookSaltValue="W3QNzv5Ky19Dwr8rg2e6dw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -939,15 +939,12 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -967,6 +964,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -986,10 +986,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,8 +1639,8 @@
     <mergeCell ref="B6:G15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1915,7 +1911,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -1972,23 +1968,23 @@
       <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -2064,24 +2060,24 @@
         <f>SUM(E6:E9)</f>
         <v>665</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="55">
         <f>E10/$E$75</f>
         <v>0.20445942925380919</v>
       </c>
-      <c r="G10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -2309,11 +2305,11 @@
         <f>SUM(E14:E26)</f>
         <v>299.19000000000005</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="55">
         <f>E27/$E$75</f>
         <v>9.1988295696913053E-2</v>
       </c>
-      <c r="G27" s="54"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="11"/>
@@ -2325,14 +2321,14 @@
       <c r="A29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -2552,11 +2548,11 @@
         <f>SUM(E30:E42)</f>
         <v>502.649</v>
       </c>
-      <c r="F43" s="54">
+      <c r="F43" s="55">
         <f>E43/$E$75</f>
         <v>0.15454334985713974</v>
       </c>
-      <c r="G43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C44" s="11"/>
@@ -2568,14 +2564,14 @@
       <c r="A45" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2731,24 +2727,24 @@
         <f>SUM(E46:E54)</f>
         <v>183.79</v>
       </c>
-      <c r="F55" s="54">
+      <c r="F55" s="55">
         <f>E55/$E$75</f>
         <v>5.6507666921139232E-2</v>
       </c>
-      <c r="G55" s="54"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -2808,24 +2804,24 @@
         <f>SUM(E58:E60)</f>
         <v>24.33</v>
       </c>
-      <c r="F61" s="54">
+      <c r="F61" s="55">
         <f>E61/$E$75</f>
         <v>7.480447990594251E-3</v>
       </c>
-      <c r="G61" s="54"/>
+      <c r="G61" s="55"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -2875,11 +2871,11 @@
         <f>SUM(E64:E66)</f>
         <v>829.52</v>
       </c>
-      <c r="F67" s="54">
+      <c r="F67" s="55">
         <f>E67/$E$75</f>
         <v>0.25504238459341322</v>
       </c>
-      <c r="G67" s="54"/>
+      <c r="G67" s="55"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" s="11"/>
@@ -2891,14 +2887,14 @@
       <c r="A69" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -2952,31 +2948,33 @@
         <f>SUM(E70:E72)</f>
         <v>748</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="55">
         <f>E73/$E$75</f>
         <v>0.22997842568699139</v>
       </c>
-      <c r="G73" s="54"/>
+      <c r="G73" s="55"/>
     </row>
     <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="27">
         <f>SUM(E73,E67,E61,E55,E43,E27,E10)</f>
         <v>3252.4789999999998</v>
       </c>
-      <c r="F75" s="55">
+      <c r="F75" s="63">
         <f>SUM(F73,F67,F61,F55,F43,F27,F10,)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="G75" s="55"/>
+      <c r="G75" s="63"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1lgAr3pVqDtHLCy7eG2uB/YFXMda99w/WWTymwU+emAIgyQNTYZ5jjplJEhdK2X/Uh9C0GewE4fMl+TqNmq8/Q==" saltValue="0I+zFM8Usyf5OA4cNs9VUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F75:G75"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F10:G10"/>
@@ -2993,12 +2991,10 @@
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F75:G75"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>